--- a/Data/Results/ChampionshipProblemResult_s-Rule.xlsx
+++ b/Data/Results/ChampionshipProblemResult_s-Rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Studium\Hochschule Fulda\Master\Masterarbeit\Implementierungen\Data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC9B8CF-FEBC-415E-81A2-33D2620C3253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0672CF32-110B-47D1-A9A2-5106B88E3ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,8 +579,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -626,7 +627,26 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -637,6 +657,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F77BC034-B60C-4205-B3CA-2C45FEDFE6BD}" name="Table1" displayName="Table1" ref="R1:AF9" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="R1:AF9" xr:uid="{F77BC034-B60C-4205-B3CA-2C45FEDFE6BD}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{D55F8C7A-F3BC-47C8-ADBD-93568151715A}" name="Algorithm"/>
+    <tableColumn id="2" xr3:uid="{CD123750-86F2-4A4C-A072-9E3500405D75}" name="Data Structure"/>
+    <tableColumn id="3" xr3:uid="{CFD3277F-57DC-43A5-A390-C5E813A1ED8F}" name="Runtime">
+      <calculatedColumnFormula>SUMIFS(C:C,A:A,R2,B:B,S2)/COUNTIFS(A:A,R2,B:B,S2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{316A794D-1923-44E6-BF2F-D8983BD143CD}" name="Iterations"/>
+    <tableColumn id="5" xr3:uid="{E23E08A7-4C66-4ACE-88FE-660763CC08B5}" name="AddNode"/>
+    <tableColumn id="6" xr3:uid="{9B414810-40DF-40E3-880E-E76BE8B278B7}" name="RemoveNode"/>
+    <tableColumn id="7" xr3:uid="{0A0B1034-111F-415D-8FFC-A1B98D329C98}" name="AddEdge"/>
+    <tableColumn id="8" xr3:uid="{B1709568-90E0-442F-BE3E-016BC2B3DCF6}" name="RemoveEdge"/>
+    <tableColumn id="9" xr3:uid="{B204AC1D-F5B6-48D7-A491-A1ACA3A3BEC6}" name="GetEdges"/>
+    <tableColumn id="10" xr3:uid="{2B3C3C01-B20F-42F5-A961-4BC74AE0E49B}" name="GetNeighbours"/>
+    <tableColumn id="11" xr3:uid="{EAC5A876-B838-4E74-9638-7AB007144C75}" name="GetPredecessors"/>
+    <tableColumn id="12" xr3:uid="{BED90B00-A5A7-4EB1-9A3D-7D5B873E1D39}" name="SetCapacity"/>
+    <tableColumn id="13" xr3:uid="{520D2B92-104E-4C7C-9D4B-D2487A674334}" name="AddCapacity"/>
+    <tableColumn id="14" xr3:uid="{31857DAF-AAFB-436B-AF10-FDDE4D7A5AE0}" name="GetCapacity"/>
+    <tableColumn id="15" xr3:uid="{093020E1-10B9-4AB2-A95A-2AF5C1EDBFC9}" name="GetSize"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -938,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,17 +1007,17 @@
     <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" customWidth="1"/>
+    <col min="24" max="24" width="11" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" customWidth="1"/>
+    <col min="27" max="27" width="16.7109375" customWidth="1"/>
+    <col min="28" max="28" width="18.140625" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" customWidth="1"/>
+    <col min="30" max="30" width="14.140625" customWidth="1"/>
+    <col min="31" max="31" width="13.85546875" customWidth="1"/>
     <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1021,49 +1067,49 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5237,5 +5283,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Data/Results/ChampionshipProblemResult_s-Rule.xlsx
+++ b/Data/Results/ChampionshipProblemResult_s-Rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Studium\Hochschule Fulda\Master\Masterarbeit\Implementierungen\Data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0672CF32-110B-47D1-A9A2-5106B88E3ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32547C0E-E567-4DFB-B65A-2CC49B55168E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="22">
   <si>
     <t>Algorithm</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Data Structure</t>
+  </si>
+  <si>
+    <t>Runtime (in s)</t>
   </si>
 </sst>
 </file>
@@ -665,7 +668,7 @@
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{D55F8C7A-F3BC-47C8-ADBD-93568151715A}" name="Algorithm"/>
     <tableColumn id="2" xr3:uid="{CD123750-86F2-4A4C-A072-9E3500405D75}" name="Data Structure"/>
-    <tableColumn id="3" xr3:uid="{CFD3277F-57DC-43A5-A390-C5E813A1ED8F}" name="Runtime">
+    <tableColumn id="3" xr3:uid="{CFD3277F-57DC-43A5-A390-C5E813A1ED8F}" name="Runtime (in s)">
       <calculatedColumnFormula>SUMIFS(C:C,A:A,R2,B:B,S2)/COUNTIFS(A:A,R2,B:B,S2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{316A794D-1923-44E6-BF2F-D8983BD143CD}" name="Iterations"/>
@@ -984,7 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
@@ -1005,8 +1008,7 @@
     <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.7109375" customWidth="1"/>
     <col min="22" max="22" width="11.5703125" customWidth="1"/>
     <col min="23" max="23" width="15.28515625" customWidth="1"/>
@@ -1074,7 +1076,7 @@
         <v>20</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>2</v>

--- a/Data/Results/ChampionshipProblemResult_s-Rule.xlsx
+++ b/Data/Results/ChampionshipProblemResult_s-Rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Studium\Hochschule Fulda\Master\Masterarbeit\Implementierungen\Data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32547C0E-E567-4DFB-B65A-2CC49B55168E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CB4EB7-9997-440B-890C-096CB7409470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChampionshipProblemResult_s-Rul" sheetId="1" r:id="rId1"/>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
